--- a/treatmentHoldDownPlungeThermal.xlsx
+++ b/treatmentHoldDownPlungeThermal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F67AB3-0513-45DC-A468-669BC3056B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D25EB0-4511-428C-88E0-97A52CA9E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22A0B574-2842-43FD-9C8E-EE90A84EEB66}"/>
   </bookViews>
